--- a/docs/budget_request.xlsx
+++ b/docs/budget_request.xlsx
@@ -413,7 +413,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,6 +495,9 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6" s="2">
         <v>10.99</v>
